--- a/ConceptMap-R5-Requirements-elements-for-R4.xlsx
+++ b/ConceptMap-R5-Requirements-elements-for-R4.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="139">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-06T13:17:34.1411921-06:00</t>
+    <t>2026-02-09T22:05:44.1837215-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -345,9 +345,6 @@
     <t>statement</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Requirements:statement</t>
-  </si>
-  <si>
     <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Requirements:http://hl7.org/fhir/5.0/StructureDefinition/extension-Requirements.statement</t>
   </si>
   <si>
@@ -357,9 +354,6 @@
     <t>key</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Requirements:statement:key</t>
-  </si>
-  <si>
     <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Requirements:http://hl7.org/fhir/5.0/StructureDefinition/extension-Requirements.statement:key</t>
   </si>
   <si>
@@ -369,9 +363,6 @@
     <t>label</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Requirements:statement:label</t>
-  </si>
-  <si>
     <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Requirements:http://hl7.org/fhir/5.0/StructureDefinition/extension-Requirements.statement:label</t>
   </si>
   <si>
@@ -381,9 +372,6 @@
     <t>conformance</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Requirements:statement:conformance</t>
-  </si>
-  <si>
     <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Requirements:http://hl7.org/fhir/5.0/StructureDefinition/extension-Requirements.statement:conformance</t>
   </si>
   <si>
@@ -393,9 +381,6 @@
     <t>conditionality</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Requirements:statement:conditionality</t>
-  </si>
-  <si>
     <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Requirements:http://hl7.org/fhir/5.0/StructureDefinition/extension-Requirements.statement:conditionality</t>
   </si>
   <si>
@@ -405,18 +390,12 @@
     <t>requirement</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Requirements:statement:requirement</t>
-  </si>
-  <si>
     <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Requirements:http://hl7.org/fhir/5.0/StructureDefinition/extension-Requirements.statement:requirement</t>
   </si>
   <si>
     <t>Requirements.statement.derivedFrom</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Requirements:statement:derivedFrom</t>
-  </si>
-  <si>
     <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Requirements:http://hl7.org/fhir/5.0/StructureDefinition/extension-Requirements.statement:derivedFrom</t>
   </si>
   <si>
@@ -426,9 +405,6 @@
     <t>parent</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Requirements:statement:parent</t>
-  </si>
-  <si>
     <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Requirements:http://hl7.org/fhir/5.0/StructureDefinition/extension-Requirements.statement:parent</t>
   </si>
   <si>
@@ -438,18 +414,12 @@
     <t>satisfiedBy</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Requirements:statement:satisfiedBy</t>
-  </si>
-  <si>
     <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Requirements:http://hl7.org/fhir/5.0/StructureDefinition/extension-Requirements.statement:satisfiedBy</t>
   </si>
   <si>
     <t>Requirements.statement.reference</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Requirements:statement:reference</t>
-  </si>
-  <si>
     <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Requirements:http://hl7.org/fhir/5.0/StructureDefinition/extension-Requirements.statement:reference</t>
   </si>
   <si>
@@ -457,9 +427,6 @@
   </si>
   <si>
     <t>source</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Requirements:statement:source</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Requirements:http://hl7.org/fhir/5.0/StructureDefinition/extension-Requirements.statement:source</t>
@@ -719,7 +686,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E50"/>
+  <dimension ref="A1:E39"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1110,276 +1077,133 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E30" s="2"/>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E31" s="2"/>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E32" s="2"/>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E33" s="2"/>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="E34" s="2"/>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>121</v>
+        <v>100</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="E35" s="2"/>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="E36" s="2"/>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="E37" s="2"/>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>125</v>
+        <v>103</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="E38" s="2"/>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="E39" s="2"/>
-    </row>
-    <row r="40">
-      <c r="A40" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="B40" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="C40" s="2"/>
-      <c r="D40" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="E40" s="2"/>
-    </row>
-    <row r="41">
-      <c r="A41" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="B41" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="C41" s="2"/>
-      <c r="D41" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="E41" s="2"/>
-    </row>
-    <row r="42">
-      <c r="A42" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="B42" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="C42" s="2"/>
-      <c r="D42" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="E42" s="2"/>
-    </row>
-    <row r="43">
-      <c r="A43" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="B43" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="C43" s="2"/>
-      <c r="D43" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="E43" s="2"/>
-    </row>
-    <row r="44">
-      <c r="A44" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="B44" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="C44" s="2"/>
-      <c r="D44" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="E44" s="2"/>
-    </row>
-    <row r="45">
-      <c r="A45" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="B45" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="C45" s="2"/>
-      <c r="D45" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="E45" s="2"/>
-    </row>
-    <row r="46">
-      <c r="A46" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="B46" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="C46" s="2"/>
-      <c r="D46" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="E46" s="2"/>
-    </row>
-    <row r="47">
-      <c r="A47" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="B47" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="C47" s="2"/>
-      <c r="D47" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="E47" s="2"/>
-    </row>
-    <row r="48">
-      <c r="A48" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="B48" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="C48" s="2"/>
-      <c r="D48" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="E48" s="2"/>
-    </row>
-    <row r="49">
-      <c r="A49" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="B49" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="C49" s="2"/>
-      <c r="D49" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="E49" s="2"/>
-    </row>
-    <row r="50">
-      <c r="A50" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="B50" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="C50" s="2"/>
-      <c r="D50" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="E50" s="2"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/ConceptMap-R5-Requirements-elements-for-R4.xlsx
+++ b/ConceptMap-R5-Requirements-elements-for-R4.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-09T22:05:44.1837215-06:00</t>
+    <t>2026-02-17T14:42:27.5169138-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -165,7 +165,7 @@
     <t>url</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Requirements:url</t>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Requirements:http://hl7.org/fhir/5.0/StructureDefinition/extension-Requirements.url</t>
   </si>
   <si>
     <t>Requirements.identifier</t>
@@ -183,7 +183,7 @@
     <t>version</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Requirements:version</t>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Requirements:http://hl7.org/fhir/5.0/StructureDefinition/extension-Requirements.version</t>
   </si>
   <si>
     <t>Requirements.versionAlgorithm[x]</t>
@@ -192,7 +192,7 @@
     <t>versionAlgorithm[x]</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Requirements:versionAlgorithm</t>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Requirements:http://hl7.org/fhir/5.0/StructureDefinition/extension-Requirements.versionAlgorithm</t>
   </si>
   <si>
     <t>Requirements.name</t>
@@ -201,7 +201,7 @@
     <t>name</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Requirements:name</t>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Requirements:http://hl7.org/fhir/5.0/StructureDefinition/extension-Requirements.name</t>
   </si>
   <si>
     <t>Requirements.title</t>
@@ -210,7 +210,7 @@
     <t>title</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Requirements:title</t>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Requirements:http://hl7.org/fhir/5.0/StructureDefinition/extension-Requirements.title</t>
   </si>
   <si>
     <t>Requirements.status</t>
@@ -219,7 +219,7 @@
     <t>status</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Requirements:status</t>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Requirements:http://hl7.org/fhir/5.0/StructureDefinition/extension-Requirements.status</t>
   </si>
   <si>
     <t>Requirements.experimental</t>
@@ -228,7 +228,7 @@
     <t>experimental</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Requirements:experimental</t>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Requirements:http://hl7.org/fhir/5.0/StructureDefinition/extension-Requirements.experimental</t>
   </si>
   <si>
     <t>Requirements.date</t>
@@ -237,7 +237,7 @@
     <t>date</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Requirements:date</t>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Requirements:http://hl7.org/fhir/5.0/StructureDefinition/extension-Requirements.date</t>
   </si>
   <si>
     <t>Requirements.publisher</t>
@@ -246,7 +246,7 @@
     <t>publisher</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Requirements:publisher</t>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Requirements:http://hl7.org/fhir/5.0/StructureDefinition/extension-Requirements.publisher</t>
   </si>
   <si>
     <t>Requirements.contact</t>
@@ -255,7 +255,7 @@
     <t>contact</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Requirements:contact</t>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Requirements:http://hl7.org/fhir/5.0/StructureDefinition/extension-Requirements.contact</t>
   </si>
   <si>
     <t>Requirements.description</t>
@@ -264,7 +264,7 @@
     <t>description</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Requirements:description</t>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Requirements:http://hl7.org/fhir/5.0/StructureDefinition/extension-Requirements.description</t>
   </si>
   <si>
     <t>Requirements.useContext</t>
@@ -273,7 +273,7 @@
     <t>useContext</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Requirements:useContext</t>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Requirements:http://hl7.org/fhir/5.0/StructureDefinition/extension-Requirements.useContext</t>
   </si>
   <si>
     <t>Requirements.jurisdiction</t>
@@ -282,7 +282,7 @@
     <t>jurisdiction</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Requirements:jurisdiction</t>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Requirements:http://hl7.org/fhir/5.0/StructureDefinition/extension-Requirements.jurisdiction</t>
   </si>
   <si>
     <t>Requirements.purpose</t>
@@ -291,7 +291,7 @@
     <t>purpose</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Requirements:purpose</t>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Requirements:http://hl7.org/fhir/5.0/StructureDefinition/extension-Requirements.purpose</t>
   </si>
   <si>
     <t>Requirements.copyright</t>
@@ -300,7 +300,7 @@
     <t>copyright</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Requirements:copyright</t>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Requirements:http://hl7.org/fhir/5.0/StructureDefinition/extension-Requirements.copyright</t>
   </si>
   <si>
     <t>Requirements.copyrightLabel</t>
@@ -309,7 +309,7 @@
     <t>copyrightLabel</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Requirements:copyrightLabel</t>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Requirements:http://hl7.org/fhir/5.0/StructureDefinition/extension-Requirements.copyrightLabel</t>
   </si>
   <si>
     <t>Requirements.derivedFrom</t>
@@ -318,7 +318,7 @@
     <t>derivedFrom</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Requirements:derivedFrom</t>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Requirements:http://hl7.org/fhir/5.0/StructureDefinition/extension-Requirements.derivedFrom</t>
   </si>
   <si>
     <t>Requirements.reference</t>
@@ -327,7 +327,7 @@
     <t>reference</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Requirements:reference</t>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Requirements:http://hl7.org/fhir/5.0/StructureDefinition/extension-Requirements.reference</t>
   </si>
   <si>
     <t>Requirements.actor</t>
@@ -336,7 +336,7 @@
     <t>actor</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Requirements:actor</t>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Requirements:http://hl7.org/fhir/5.0/StructureDefinition/extension-Requirements.actor</t>
   </si>
   <si>
     <t>Requirements.statement</t>
@@ -354,7 +354,7 @@
     <t>key</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Requirements:http://hl7.org/fhir/5.0/StructureDefinition/extension-Requirements.statement:key</t>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Requirements:http://hl7.org/fhir/5.0/StructureDefinition/extension-Requirements.statement:http://hl7.org/fhir/5.0/StructureDefinition/extension-Requirements.statement.key</t>
   </si>
   <si>
     <t>Requirements.statement.label</t>
@@ -363,7 +363,7 @@
     <t>label</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Requirements:http://hl7.org/fhir/5.0/StructureDefinition/extension-Requirements.statement:label</t>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Requirements:http://hl7.org/fhir/5.0/StructureDefinition/extension-Requirements.statement:http://hl7.org/fhir/5.0/StructureDefinition/extension-Requirements.statement.label</t>
   </si>
   <si>
     <t>Requirements.statement.conformance</t>
@@ -372,7 +372,7 @@
     <t>conformance</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Requirements:http://hl7.org/fhir/5.0/StructureDefinition/extension-Requirements.statement:conformance</t>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Requirements:http://hl7.org/fhir/5.0/StructureDefinition/extension-Requirements.statement:http://hl7.org/fhir/5.0/StructureDefinition/extension-Requirements.statement.conformance</t>
   </si>
   <si>
     <t>Requirements.statement.conditionality</t>
@@ -381,7 +381,7 @@
     <t>conditionality</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Requirements:http://hl7.org/fhir/5.0/StructureDefinition/extension-Requirements.statement:conditionality</t>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Requirements:http://hl7.org/fhir/5.0/StructureDefinition/extension-Requirements.statement:http://hl7.org/fhir/5.0/StructureDefinition/extension-Requirements.statement.conditionality</t>
   </si>
   <si>
     <t>Requirements.statement.requirement</t>
@@ -390,13 +390,13 @@
     <t>requirement</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Requirements:http://hl7.org/fhir/5.0/StructureDefinition/extension-Requirements.statement:requirement</t>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Requirements:http://hl7.org/fhir/5.0/StructureDefinition/extension-Requirements.statement:http://hl7.org/fhir/5.0/StructureDefinition/extension-Requirements.statement.requirement</t>
   </si>
   <si>
     <t>Requirements.statement.derivedFrom</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Requirements:http://hl7.org/fhir/5.0/StructureDefinition/extension-Requirements.statement:derivedFrom</t>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Requirements:http://hl7.org/fhir/5.0/StructureDefinition/extension-Requirements.statement:http://hl7.org/fhir/5.0/StructureDefinition/extension-Requirements.statement.derivedFrom</t>
   </si>
   <si>
     <t>Requirements.statement.parent</t>
@@ -405,7 +405,7 @@
     <t>parent</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Requirements:http://hl7.org/fhir/5.0/StructureDefinition/extension-Requirements.statement:parent</t>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Requirements:http://hl7.org/fhir/5.0/StructureDefinition/extension-Requirements.statement:http://hl7.org/fhir/5.0/StructureDefinition/extension-Requirements.statement.parent</t>
   </si>
   <si>
     <t>Requirements.statement.satisfiedBy</t>
@@ -414,13 +414,13 @@
     <t>satisfiedBy</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Requirements:http://hl7.org/fhir/5.0/StructureDefinition/extension-Requirements.statement:satisfiedBy</t>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Requirements:http://hl7.org/fhir/5.0/StructureDefinition/extension-Requirements.statement:http://hl7.org/fhir/5.0/StructureDefinition/extension-Requirements.statement.satisfiedBy</t>
   </si>
   <si>
     <t>Requirements.statement.reference</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Requirements:http://hl7.org/fhir/5.0/StructureDefinition/extension-Requirements.statement:reference</t>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Requirements:http://hl7.org/fhir/5.0/StructureDefinition/extension-Requirements.statement:http://hl7.org/fhir/5.0/StructureDefinition/extension-Requirements.statement.reference</t>
   </si>
   <si>
     <t>Requirements.statement.source</t>
@@ -429,7 +429,7 @@
     <t>source</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Requirements:http://hl7.org/fhir/5.0/StructureDefinition/extension-Requirements.statement:source</t>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Requirements:http://hl7.org/fhir/5.0/StructureDefinition/extension-Requirements.statement:http://hl7.org/fhir/5.0/StructureDefinition/extension-Requirements.statement.source</t>
   </si>
 </sst>
 </file>
